--- a/Index/GP Nr. 05,06,08.xlsx
+++ b/Index/GP Nr. 05,06,08.xlsx
@@ -1344,6 +1344,9 @@
       <c r="K20" t="n">
         <v>247.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>205.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2284,6 +2287,9 @@
       <c r="K20" t="n">
         <v>141.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3220,6 +3226,9 @@
       <c r="K20" t="n">
         <v>149.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4160,6 +4169,9 @@
       <c r="K20" t="n">
         <v>122.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5230,6 +5242,9 @@
       <c r="K20" t="n">
         <v>103.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6170,6 +6185,9 @@
       <c r="K20" t="n">
         <v>103.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7240,6 +7258,9 @@
       <c r="K20" t="n">
         <v>110.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8180,6 +8201,9 @@
       <c r="K20" t="n">
         <v>110.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9120,6 +9144,9 @@
       <c r="K20" t="n">
         <v>494.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>365.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10060,6 +10087,9 @@
       <c r="K20" t="n">
         <v>183.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11001,6 +11031,9 @@
       <c r="K20" t="n">
         <v>643</v>
       </c>
+      <c r="L20" t="n">
+        <v>450.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11941,6 +11974,9 @@
       <c r="K20" t="n">
         <v>134.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12881,6 +12917,9 @@
       <c r="K20" t="n">
         <v>141.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13821,6 +13860,9 @@
       <c r="K20" t="n">
         <v>139.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 05,06,08.xlsx
+++ b/Index/GP Nr. 05,06,08.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 050608" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 05" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 05 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 06 10 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 06 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 08" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 08 1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 08 12" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 08 12 1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP Nr. 05,06,0810" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 08 12 2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 08 9" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 08 93" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 050608" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 05 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 06 10 1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 06 2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 12" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 12 1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 05,06,0810" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 12 2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 9" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 08 93" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1347,6 +1347,12 @@
       <c r="L20" t="n">
         <v>205.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>194.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2290,6 +2296,12 @@
       <c r="L20" t="n">
         <v>141.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3229,6 +3241,12 @@
       <c r="L20" t="n">
         <v>149.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4172,6 +4190,12 @@
       <c r="L20" t="n">
         <v>122.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>127</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5245,6 +5269,12 @@
       <c r="L20" t="n">
         <v>105.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6188,6 +6218,12 @@
       <c r="L20" t="n">
         <v>105.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7261,6 +7297,12 @@
       <c r="L20" t="n">
         <v>110.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8204,6 +8246,12 @@
       <c r="L20" t="n">
         <v>110.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9147,6 +9195,12 @@
       <c r="L20" t="n">
         <v>365.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>323</v>
+      </c>
+      <c r="N20" t="n">
+        <v>337.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10090,6 +10144,12 @@
       <c r="L20" t="n">
         <v>187.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11034,6 +11094,12 @@
       <c r="L20" t="n">
         <v>450.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>395.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>406.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11977,6 +12043,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12920,6 +12992,12 @@
       <c r="L20" t="n">
         <v>141.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13863,6 +13941,12 @@
       <c r="L20" t="n">
         <v>139.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
